--- a/Phân công đánh giá công việc/PhanCongCongViecMoc.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928BB300-31D5-4764-B420-D01C7F5AB0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20263A-9148-475C-9F4A-A92965C59189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -278,12 +278,6 @@
     <t>Code giao diện và xử lý chức năng quản lí vé phim</t>
   </si>
   <si>
-    <t>Chức năng bán vé tại quầy???</t>
-  </si>
-  <si>
-    <t>Chức năng đổi mật khẩu???</t>
-  </si>
-  <si>
     <t>Activity và Sequence chức năng quản lí phòng chiếu, lịch chiếu</t>
   </si>
   <si>
@@ -306,13 +300,22 @@
   </si>
   <si>
     <t>Nguyễn Thái Đức</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Unit test và functional test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +341,12 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,7 +491,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -507,6 +515,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,12 +578,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -543,47 +587,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,41 +910,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="104.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="104.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -953,102 +964,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="8" t="s">
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="8" t="s">
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="8" t="s">
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="11" t="s">
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="15" t="s">
+      <c r="F8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="28" t="s">
+      <c r="F9" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1057,660 +1068,686 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="7" t="s">
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="26"/>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="23" t="s">
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="8" t="s">
+      <c r="F16" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="8" t="s">
+      <c r="F17" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="8" t="s">
+      <c r="F18" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="8" t="s">
+      <c r="F19" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="8" t="s">
+      <c r="F20" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="28" t="s">
+      <c r="F21" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="26"/>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="26"/>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="26"/>
+      <c r="F24" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="6" t="s">
+      <c r="F25" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="F26" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="8" t="s">
+      <c r="F27" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="8" t="s">
+      <c r="F28" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="11" t="s">
+      <c r="F29" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
-      <c r="B31" s="28" t="s">
+      <c r="F30" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A32" s="36"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="38"/>
+      <c r="F31" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="36"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="38"/>
+      <c r="F32" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="36"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="38"/>
+      <c r="F33" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="38"/>
+      <c r="F34" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A36" s="36"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="38"/>
+      <c r="F35" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A37" s="36"/>
-      <c r="B37" s="23" t="s">
+      <c r="F36" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A38" s="36"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="11" t="s">
+      <c r="F37" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A39" s="36"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="8" t="s">
+      <c r="F38" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="8" t="s">
+      <c r="F39" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A41" s="36"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="8" t="s">
+      <c r="F40" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39" t="s">
+      <c r="F41" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="26" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
+      <c r="F42" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A44" s="36"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="F43" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
+        <v>86</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
+      <c r="F45" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35" t="s">
+      <c r="F46" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="5" t="s">
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A49" s="35"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A50" s="35"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A51" s="35"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A52" s="35"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A53" s="35"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A54" s="35"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="5" t="s">
+    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="41" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="A27:A46"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
@@ -1721,6 +1758,18 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
